--- a/Data/EC/NIT-9006805295.xlsx
+++ b/Data/EC/NIT-9006805295.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1C2089-DCD3-4E96-BCA9-2FB47294927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC14A30-6A3C-4080-A363-044B892DA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EAAD16CC-97A3-4331-BED8-B733C0E7D432}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3F868E9-4C7A-4140-9081-19B74239E5F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,165 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128062119</t>
+  </si>
+  <si>
+    <t>IDA MARGARITA VASQUEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1143350806</t>
+  </si>
+  <si>
+    <t>JOHANY PAOLA OLIVA GUERRA</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1047430492</t>
+  </si>
+  <si>
+    <t>JORGE MARIO GRAU GARCIA</t>
+  </si>
+  <si>
+    <t>1129538702</t>
+  </si>
+  <si>
+    <t>YENNY CARCAMO TORRES</t>
+  </si>
+  <si>
+    <t>79784369</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MUNEVAR BLANCO</t>
+  </si>
+  <si>
+    <t>1088883153</t>
+  </si>
+  <si>
+    <t>STEPHANIE SUSANNE MUÑOZ O CONNELL</t>
+  </si>
+  <si>
+    <t>25112266</t>
+  </si>
+  <si>
+    <t>LIGIA LORENA VALENCIA RAMIREZ</t>
+  </si>
+  <si>
     <t>1053807978</t>
   </si>
   <si>
@@ -74,187 +233,28 @@
     <t>1609</t>
   </si>
   <si>
-    <t>1143350806</t>
-  </si>
-  <si>
-    <t>JOHANY PAOLA OLIVA GUERRA</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1129538702</t>
-  </si>
-  <si>
-    <t>YENNY CARCAMO TORRES</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>25112266</t>
-  </si>
-  <si>
-    <t>LIGIA LORENA VALENCIA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1704</t>
+    <t>1047445256</t>
+  </si>
+  <si>
+    <t>ALFREDO RAFAEL FUENTES CASTELLANOS</t>
+  </si>
+  <si>
+    <t>1053777010</t>
+  </si>
+  <si>
+    <t>NATALY RODRIGUEZ CARDONA</t>
+  </si>
+  <si>
+    <t>16071520</t>
+  </si>
+  <si>
+    <t>DAVID GRAND CARDENAS</t>
   </si>
   <si>
     <t>18420598</t>
   </si>
   <si>
     <t>ARLEX MAURICIO MEJIA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1053777010</t>
-  </si>
-  <si>
-    <t>NATALY RODRIGUEZ CARDONA</t>
-  </si>
-  <si>
-    <t>16071520</t>
-  </si>
-  <si>
-    <t>DAVID GRAND CARDENAS</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1047445256</t>
-  </si>
-  <si>
-    <t>ALFREDO RAFAEL FUENTES CASTELLANOS</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1128062119</t>
-  </si>
-  <si>
-    <t>IDA MARGARITA VASQUEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>1047430492</t>
-  </si>
-  <si>
-    <t>JORGE MARIO GRAU GARCIA</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1088883153</t>
-  </si>
-  <si>
-    <t>STEPHANIE SUSANNE MUÑOZ O CONNELL</t>
-  </si>
-  <si>
-    <t>79784369</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MUNEVAR BLANCO</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BC1215-EF62-53F3-9BEB-47F2C3D442E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF8A7A4-8F16-AD27-4B00-729474C334A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515FB678-AE70-4EC7-9911-F895A97DE0C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5F0BAC-5BCD-4B9C-8A71-4EA8995B023B}">
   <dimension ref="B2:J282"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1197,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>21874</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1303,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1326,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1372,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1395,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1418,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1441,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1464,16 +1464,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F29" s="18">
-        <v>6885</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1533,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1556,16 +1556,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1602,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1648,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1694,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1740,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
@@ -1763,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>616000</v>
+        <v>737717</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1832,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>25200</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1855,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1878,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F46" s="18">
         <v>36000</v>
@@ -1901,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1924,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1947,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1970,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1993,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2016,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F52" s="18">
         <v>36000</v>
@@ -2039,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2062,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2085,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F57" s="18">
         <v>36000</v>
@@ -2154,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2223,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,19 +2269,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2292,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
         <v>36000</v>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2338,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E67" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F68" s="18">
         <v>36000</v>
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2430,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2476,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,19 +2522,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F75" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" s="18">
         <v>36000</v>
@@ -2591,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2614,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2637,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
-        <v>88000</v>
+        <v>36000</v>
       </c>
       <c r="G79" s="18">
-        <v>2200000</v>
+        <v>900000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2660,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2706,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2729,16 +2729,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G83" s="18">
         <v>737717</v>
@@ -2752,16 +2752,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F84" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>737717</v>
@@ -2775,16 +2775,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F85" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>737717</v>
@@ -2798,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F86" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2821,16 +2821,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F87" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>737717</v>
@@ -2844,16 +2844,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F88" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>737717</v>
@@ -2867,16 +2867,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F89" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>737717</v>
@@ -2890,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F90" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2913,16 +2913,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F91" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>737717</v>
@@ -2936,16 +2936,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F92" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>737717</v>
@@ -2959,16 +2959,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F93" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>737717</v>
@@ -2982,16 +2982,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D94" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F94" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>737717</v>
@@ -3005,16 +3005,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>737717</v>
@@ -3028,16 +3028,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F96" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>737717</v>
@@ -3051,16 +3051,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>737717</v>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F98" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3097,19 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3120,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F100" s="18">
         <v>29509</v>
@@ -3143,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F101" s="18">
         <v>29509</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3166,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F102" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3189,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F103" s="18">
         <v>29509</v>
@@ -3212,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F104" s="18">
         <v>29509</v>
@@ -3235,13 +3235,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F105" s="18">
         <v>29509</v>
@@ -3258,13 +3258,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F106" s="18">
         <v>29509</v>
@@ -3281,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F107" s="18">
         <v>29509</v>
@@ -3304,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F108" s="18">
         <v>29509</v>
@@ -3327,13 +3327,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F109" s="18">
         <v>29509</v>
@@ -3350,19 +3350,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F110" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3373,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F111" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3396,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F112" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G112" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3419,19 +3419,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F113" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3442,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F114" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G114" s="18">
-        <v>900000</v>
+        <v>616000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3465,19 +3465,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F115" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3488,19 +3488,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3511,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3534,19 +3534,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>616000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3557,19 +3557,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F119" s="18">
-        <v>36000</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
-        <v>900000</v>
+        <v>616000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3580,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F120" s="18">
         <v>29509</v>
@@ -3603,19 +3603,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>88000</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>2200000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3626,16 +3626,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F122" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G122" s="18">
         <v>737717</v>
@@ -3649,16 +3649,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>737717</v>
@@ -3672,16 +3672,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>737717</v>
@@ -3695,16 +3695,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>737717</v>
@@ -3718,16 +3718,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
         <v>737717</v>
@@ -3741,16 +3741,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F127" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
         <v>737717</v>
@@ -3764,16 +3764,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F128" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>737717</v>
@@ -3787,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3810,16 +3810,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
         <v>737717</v>
@@ -3833,16 +3833,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F131" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
         <v>737717</v>
@@ -3856,19 +3856,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F132" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3879,16 +3879,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F133" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
         <v>737717</v>
@@ -3902,16 +3902,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F134" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
         <v>737717</v>
@@ -3925,19 +3925,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F135" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3948,16 +3948,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F136" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
         <v>737717</v>
@@ -3971,16 +3971,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F137" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
         <v>737717</v>
@@ -3994,19 +3994,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F138" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4017,13 +4017,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F139" s="18">
         <v>29509</v>
@@ -4040,13 +4040,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F140" s="18">
         <v>29509</v>
@@ -4063,19 +4063,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F141" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G141" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4086,16 +4086,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G142" s="18">
         <v>737717</v>
@@ -4109,16 +4109,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G143" s="18">
         <v>737717</v>
@@ -4132,16 +4132,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G144" s="18">
         <v>737717</v>
@@ -4155,19 +4155,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4178,16 +4178,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G146" s="18">
         <v>737717</v>
@@ -4201,16 +4201,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G147" s="18">
         <v>737717</v>
@@ -4224,16 +4224,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G148" s="18">
         <v>737717</v>
@@ -4247,16 +4247,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G149" s="18">
         <v>737717</v>
@@ -4270,16 +4270,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G150" s="18">
         <v>737717</v>
@@ -4293,16 +4293,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G151" s="18">
         <v>737717</v>
@@ -4316,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4339,16 +4339,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G153" s="18">
         <v>737717</v>
@@ -4362,16 +4362,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G154" s="18">
         <v>737717</v>
@@ -4385,16 +4385,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G155" s="18">
         <v>737717</v>
@@ -4408,19 +4408,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F156" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G156" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4431,19 +4431,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4454,16 +4454,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G158" s="18">
         <v>737717</v>
@@ -4477,13 +4477,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4500,13 +4500,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4523,13 +4523,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4546,13 +4546,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4569,13 +4569,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4592,19 +4592,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F164" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4615,13 +4615,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4638,19 +4638,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4661,13 +4661,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4684,13 +4684,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4707,13 +4707,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D169" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4730,13 +4730,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4753,13 +4753,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4776,19 +4776,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F172" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4799,13 +4799,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -4822,19 +4822,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4845,16 +4845,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F175" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G175" s="18">
         <v>737717</v>
@@ -4868,19 +4868,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F176" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G176" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4891,16 +4891,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F177" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G177" s="18">
         <v>737717</v>
@@ -4914,16 +4914,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G178" s="18">
         <v>737717</v>
@@ -4937,16 +4937,16 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F179" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G179" s="18">
         <v>737717</v>
@@ -4960,16 +4960,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F180" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G180" s="18">
         <v>737717</v>
@@ -4983,16 +4983,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G181" s="18">
         <v>737717</v>
@@ -5006,19 +5006,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F182" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G182" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5029,16 +5029,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F183" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G183" s="18">
         <v>737717</v>
@@ -5052,16 +5052,16 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F184" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G184" s="18">
         <v>737717</v>
@@ -5075,16 +5075,16 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D185" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F185" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G185" s="18">
         <v>737717</v>
@@ -5098,19 +5098,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5121,16 +5121,16 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F187" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G187" s="18">
         <v>737717</v>
@@ -5144,16 +5144,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G188" s="18">
         <v>737717</v>
@@ -5167,13 +5167,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5190,13 +5190,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5213,13 +5213,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5236,13 +5236,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5259,19 +5259,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5282,13 +5282,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5305,19 +5305,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F195" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5328,13 +5328,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5351,13 +5351,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5374,13 +5374,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5397,13 +5397,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5420,13 +5420,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5443,19 +5443,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F201" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5466,13 +5466,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5489,19 +5489,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5512,13 +5512,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5535,16 +5535,16 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G205" s="18">
         <v>737717</v>
@@ -5558,16 +5558,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G206" s="18">
         <v>737717</v>
@@ -5581,16 +5581,16 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D207" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E207" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F207" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G207" s="18">
         <v>737717</v>
@@ -5604,19 +5604,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G208" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5627,16 +5627,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F209" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G209" s="18">
         <v>737717</v>
@@ -5650,16 +5650,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F210" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G210" s="18">
         <v>737717</v>
@@ -5673,16 +5673,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G211" s="18">
         <v>737717</v>
@@ -5696,19 +5696,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F212" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G212" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5719,16 +5719,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G213" s="18">
         <v>737717</v>
@@ -5742,16 +5742,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G214" s="18">
         <v>737717</v>
@@ -5765,16 +5765,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G215" s="18">
         <v>737717</v>
@@ -5788,19 +5788,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F216" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G216" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5811,19 +5811,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F217" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G217" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5834,16 +5834,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F218" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G218" s="18">
         <v>737717</v>
@@ -5857,16 +5857,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G219" s="18">
         <v>737717</v>
@@ -5880,13 +5880,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -5903,19 +5903,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F221" s="18">
         <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -5926,13 +5926,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -5949,19 +5949,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F223" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -5972,13 +5972,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
@@ -5995,13 +5995,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
@@ -6018,13 +6018,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
@@ -6041,13 +6041,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6064,13 +6064,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6087,13 +6087,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
@@ -6110,13 +6110,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D230" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E230" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
@@ -6133,13 +6133,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6156,19 +6156,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E232" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D232" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F232" s="18">
         <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6179,13 +6179,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6202,13 +6202,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6225,19 +6225,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F235" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6248,16 +6248,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F236" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G236" s="18">
         <v>737717</v>
@@ -6271,19 +6271,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F237" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G237" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6294,16 +6294,16 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G238" s="18">
         <v>737717</v>
@@ -6317,19 +6317,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F239" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G239" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6340,16 +6340,16 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D240" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E240" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E240" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F240" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G240" s="18">
         <v>737717</v>
@@ -6363,16 +6363,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G241" s="18">
         <v>737717</v>
@@ -6386,16 +6386,16 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E242" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D242" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G242" s="18">
         <v>737717</v>
@@ -6409,16 +6409,16 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F243" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G243" s="18">
         <v>737717</v>
@@ -6432,16 +6432,16 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F244" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G244" s="18">
         <v>737717</v>
@@ -6455,16 +6455,16 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F245" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G245" s="18">
         <v>737717</v>
@@ -6478,19 +6478,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F246" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G246" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6501,16 +6501,16 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F247" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G247" s="18">
         <v>737717</v>
@@ -6524,16 +6524,16 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F248" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G248" s="18">
         <v>737717</v>
@@ -6547,16 +6547,16 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F249" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G249" s="18">
         <v>737717</v>
@@ -6570,19 +6570,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F250" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6593,13 +6593,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6616,13 +6616,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6639,13 +6639,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6662,13 +6662,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6685,13 +6685,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6708,13 +6708,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6731,19 +6731,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F257" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6754,19 +6754,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6777,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6800,13 +6800,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -6823,13 +6823,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -6846,19 +6846,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6869,13 +6869,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -6892,13 +6892,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -6915,13 +6915,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -6938,19 +6938,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F266" s="18">
-        <v>36000</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -6961,16 +6961,16 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F267" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G267" s="18">
         <v>737717</v>
@@ -6984,16 +6984,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G268" s="18">
         <v>737717</v>
@@ -7007,19 +7007,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F269" s="18">
-        <v>25200</v>
+        <v>29509</v>
       </c>
       <c r="G269" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7030,16 +7030,16 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E270" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D270" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E270" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F270" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G270" s="18">
         <v>737717</v>
@@ -7053,16 +7053,16 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F271" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G271" s="18">
         <v>737717</v>
@@ -7076,16 +7076,16 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F272" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G272" s="18">
         <v>737717</v>
@@ -7099,16 +7099,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F273" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G273" s="18">
         <v>737717</v>
@@ -7122,19 +7122,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F274" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G274" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7145,16 +7145,16 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F275" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G275" s="18">
         <v>737717</v>
@@ -7168,16 +7168,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F276" s="24">
-        <v>21874</v>
+        <v>6885</v>
       </c>
       <c r="G276" s="24">
         <v>737717</v>

--- a/Data/EC/NIT-9006805295.xlsx
+++ b/Data/EC/NIT-9006805295.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC14A30-6A3C-4080-A363-044B892DA3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FA5427-59C1-4B4F-8A8B-032F199AF425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3F868E9-4C7A-4140-9081-19B74239E5F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CF0FBA4E-6879-41CF-A1E0-7DE579FE2EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,196 +65,196 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1053807978</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA GOMEZ VELEZ</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1143350806</t>
+  </si>
+  <si>
+    <t>JOHANY PAOLA OLIVA GUERRA</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1129538702</t>
+  </si>
+  <si>
+    <t>YENNY CARCAMO TORRES</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>25112266</t>
+  </si>
+  <si>
+    <t>LIGIA LORENA VALENCIA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>18420598</t>
+  </si>
+  <si>
+    <t>ARLEX MAURICIO MEJIA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1053777010</t>
+  </si>
+  <si>
+    <t>NATALY RODRIGUEZ CARDONA</t>
+  </si>
+  <si>
+    <t>16071520</t>
+  </si>
+  <si>
+    <t>DAVID GRAND CARDENAS</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1047445256</t>
+  </si>
+  <si>
+    <t>ALFREDO RAFAEL FUENTES CASTELLANOS</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>1128062119</t>
   </si>
   <si>
     <t>IDA MARGARITA VASQUEZ ALVAREZ</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1047430492</t>
+  </si>
+  <si>
+    <t>JORGE MARIO GRAU GARCIA</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>79784369</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO MUNEVAR BLANCO</t>
+  </si>
+  <si>
+    <t>1088883153</t>
+  </si>
+  <si>
+    <t>STEPHANIE SUSANNE MUÑOZ O CONNELL</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1143350806</t>
-  </si>
-  <si>
-    <t>JOHANY PAOLA OLIVA GUERRA</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1047430492</t>
-  </si>
-  <si>
-    <t>JORGE MARIO GRAU GARCIA</t>
-  </si>
-  <si>
-    <t>1129538702</t>
-  </si>
-  <si>
-    <t>YENNY CARCAMO TORRES</t>
-  </si>
-  <si>
-    <t>79784369</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO MUNEVAR BLANCO</t>
-  </si>
-  <si>
-    <t>1088883153</t>
-  </si>
-  <si>
-    <t>STEPHANIE SUSANNE MUÑOZ O CONNELL</t>
-  </si>
-  <si>
-    <t>25112266</t>
-  </si>
-  <si>
-    <t>LIGIA LORENA VALENCIA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1053807978</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA GOMEZ VELEZ</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1047445256</t>
-  </si>
-  <si>
-    <t>ALFREDO RAFAEL FUENTES CASTELLANOS</t>
-  </si>
-  <si>
-    <t>1053777010</t>
-  </si>
-  <si>
-    <t>NATALY RODRIGUEZ CARDONA</t>
-  </si>
-  <si>
-    <t>16071520</t>
-  </si>
-  <si>
-    <t>DAVID GRAND CARDENAS</t>
-  </si>
-  <si>
-    <t>18420598</t>
-  </si>
-  <si>
-    <t>ARLEX MAURICIO MEJIA RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,7 +353,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,9 +368,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,23 +568,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +612,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF8A7A4-8F16-AD27-4B00-729474C334A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76029C36-29CA-5374-EC21-B8436AF5B569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5F0BAC-5BCD-4B9C-8A71-4EA8995B023B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917114FA-6C29-4591-ABF0-AD702745CBF9}">
   <dimension ref="B2:J282"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1197,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1211,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1303,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1326,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1372,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1395,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1418,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1441,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1464,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1533,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>6885</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1556,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1602,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1648,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1694,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1740,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1786,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1832,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
-        <v>25200</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>900000</v>
+        <v>689455</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1855,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1878,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F46" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1901,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1924,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F48" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1947,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F49" s="18">
         <v>36000</v>
@@ -1970,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F50" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1993,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2016,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F52" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2039,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2062,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F54" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2085,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F55" s="18">
         <v>36000</v>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F56" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F57" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2154,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F58" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F59" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2200,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F60" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2223,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F61" s="18">
         <v>36000</v>
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F62" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,19 +2269,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F63" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2292,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F64" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F65" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2338,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F66" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F67" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2384,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F68" s="18">
         <v>36000</v>
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F69" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2430,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F70" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2476,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F72" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F73" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2522,19 +2522,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F75" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" s="18">
         <v>36000</v>
@@ -2591,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2614,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2637,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
-        <v>36000</v>
+        <v>88000</v>
       </c>
       <c r="G79" s="18">
-        <v>900000</v>
+        <v>2200000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2660,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F80" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F81" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2706,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F82" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2729,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F83" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2752,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2775,19 +2775,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2798,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2821,19 +2821,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2844,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2867,19 +2867,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2890,19 +2890,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2913,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2936,19 +2936,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2959,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2982,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3005,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3028,19 +3028,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3051,19 +3051,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3074,19 +3074,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3097,19 +3097,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3120,19 +3120,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F100" s="18">
         <v>29509</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3143,19 +3143,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F101" s="18">
         <v>29509</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3166,19 +3166,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3189,19 +3189,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F103" s="18">
         <v>29509</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3212,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F104" s="18">
         <v>29509</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3235,19 +3235,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F105" s="18">
         <v>29509</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3258,19 +3258,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F106" s="18">
         <v>29509</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3281,19 +3281,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F107" s="18">
         <v>29509</v>
       </c>
       <c r="G107" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3304,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F108" s="18">
         <v>29509</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3327,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F109" s="18">
         <v>29509</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3350,19 +3350,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G110" s="18">
-        <v>616000</v>
+        <v>900000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3373,19 +3373,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G111" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3396,19 +3396,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G112" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3419,19 +3419,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G113" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3442,19 +3442,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G114" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3465,19 +3465,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3488,19 +3488,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G116" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3511,19 +3511,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G117" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3534,19 +3534,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>36000</v>
       </c>
       <c r="G118" s="18">
-        <v>616000</v>
+        <v>900000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3557,19 +3557,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G119" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3580,19 +3580,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F120" s="18">
         <v>29509</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3603,19 +3603,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F121" s="18">
-        <v>88000</v>
+        <v>29509</v>
       </c>
       <c r="G121" s="18">
-        <v>2200000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3626,19 +3626,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F122" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G122" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3649,19 +3649,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G123" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3672,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G124" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3695,19 +3695,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3718,19 +3718,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G126" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3741,19 +3741,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3764,19 +3764,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3787,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G129" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3810,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G130" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3833,19 +3833,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G131" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3856,19 +3856,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G132" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3879,19 +3879,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G133" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3902,19 +3902,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G134" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3925,19 +3925,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G135" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3948,19 +3948,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G136" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3971,19 +3971,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G137" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3994,19 +3994,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G138" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4017,19 +4017,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F139" s="18">
         <v>29509</v>
       </c>
       <c r="G139" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4040,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F140" s="18">
         <v>29509</v>
       </c>
       <c r="G140" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4063,19 +4063,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F141" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4086,19 +4086,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F142" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G142" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4109,19 +4109,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F143" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4132,19 +4132,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F144" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4155,19 +4155,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F145" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4178,19 +4178,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F146" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4201,19 +4201,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F147" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4224,19 +4224,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F148" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4247,19 +4247,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F149" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4270,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F150" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G150" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4293,19 +4293,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F151" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4316,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F152" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4339,19 +4339,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F153" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4362,19 +4362,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F154" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4385,19 +4385,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F155" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4408,19 +4408,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F156" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4431,19 +4431,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F157" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4454,19 +4454,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F158" s="18">
-        <v>21874</v>
+        <v>36000</v>
       </c>
       <c r="G158" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4477,19 +4477,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4500,19 +4500,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4523,19 +4523,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4546,19 +4546,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4569,19 +4569,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4592,19 +4592,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4615,19 +4615,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4638,19 +4638,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G166" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4661,19 +4661,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4684,19 +4684,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
       </c>
       <c r="G168" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4707,19 +4707,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4730,19 +4730,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4753,19 +4753,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4776,19 +4776,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4799,19 +4799,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4822,19 +4822,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G174" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4845,19 +4845,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F175" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4868,19 +4868,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F176" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4891,19 +4891,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F177" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4914,19 +4914,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F178" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4937,19 +4937,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F179" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -4960,19 +4960,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F180" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -4983,19 +4983,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F181" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5006,19 +5006,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F182" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G182" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5029,19 +5029,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F183" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5052,19 +5052,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F184" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5075,19 +5075,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F185" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5098,19 +5098,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F186" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5121,19 +5121,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F187" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5144,19 +5144,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F188" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5167,19 +5167,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5190,19 +5190,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G190" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5213,19 +5213,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5236,19 +5236,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5259,19 +5259,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5282,19 +5282,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5305,19 +5305,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5328,19 +5328,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5351,19 +5351,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
       </c>
       <c r="G197" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5374,19 +5374,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G198" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5397,19 +5397,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5420,19 +5420,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5443,19 +5443,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5466,19 +5466,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5489,19 +5489,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5512,19 +5512,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5535,19 +5535,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F205" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5558,19 +5558,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F206" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G206" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5581,19 +5581,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F207" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5604,19 +5604,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F208" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5627,19 +5627,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F209" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5650,19 +5650,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F210" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5673,19 +5673,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F211" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5696,19 +5696,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F212" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5719,19 +5719,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F213" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5742,19 +5742,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F214" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G214" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5765,19 +5765,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F215" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5788,19 +5788,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F216" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5811,19 +5811,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F217" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5834,19 +5834,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F218" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5857,19 +5857,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F219" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5880,19 +5880,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
       </c>
       <c r="G220" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -5903,19 +5903,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F221" s="18">
         <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -5926,19 +5926,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G222" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -5949,19 +5949,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -5972,19 +5972,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -5995,19 +5995,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6018,19 +6018,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6041,19 +6041,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6064,19 +6064,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6087,19 +6087,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6110,19 +6110,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G230" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6133,19 +6133,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
       </c>
       <c r="G231" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6156,19 +6156,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6179,19 +6179,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6202,19 +6202,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6225,19 +6225,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6248,19 +6248,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F236" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6271,19 +6271,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F237" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6294,19 +6294,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F238" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G238" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6317,19 +6317,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F239" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6340,19 +6340,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F240" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6363,19 +6363,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F241" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6386,19 +6386,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="F242" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6409,19 +6409,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F243" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6432,19 +6432,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F244" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6455,19 +6455,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E245" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D245" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F245" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6478,19 +6478,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D246" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F246" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G246" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6501,19 +6501,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E247" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D247" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F247" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6524,19 +6524,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D248" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E248" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F248" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6547,19 +6547,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E249" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D249" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E249" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F249" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6570,19 +6570,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F250" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6593,19 +6593,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6616,19 +6616,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6639,19 +6639,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6662,19 +6662,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F254" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G254" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6685,19 +6685,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6708,19 +6708,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6731,19 +6731,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6754,19 +6754,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6777,19 +6777,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6800,19 +6800,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
       </c>
       <c r="G260" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6823,19 +6823,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E261" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D261" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F261" s="18">
         <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6846,19 +6846,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D262" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F262" s="18">
-        <v>31249</v>
+        <v>36000</v>
       </c>
       <c r="G262" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6869,19 +6869,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D263" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E263" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F263" s="18">
         <v>31249</v>
       </c>
       <c r="G263" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6892,19 +6892,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D264" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F264" s="18">
         <v>31249</v>
       </c>
       <c r="G264" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -6915,19 +6915,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E265" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D265" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F265" s="18">
         <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -6938,19 +6938,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E266" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D266" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F266" s="18">
         <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -6961,19 +6961,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E267" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D267" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E267" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F267" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G267" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -6984,19 +6984,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D268" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F268" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7007,19 +7007,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D269" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E269" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E269" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F269" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G269" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7030,19 +7030,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E270" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F270" s="18">
-        <v>29509</v>
+        <v>25200</v>
       </c>
       <c r="G270" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7053,19 +7053,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D271" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E271" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F271" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G271" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7076,19 +7076,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D272" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E272" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F272" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G272" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7099,19 +7099,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D273" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E273" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E273" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F273" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G273" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7122,19 +7122,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D274" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E274" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F274" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G274" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7145,19 +7145,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D275" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E275" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E275" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F275" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G275" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7168,19 +7168,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D276" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E276" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E276" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="F276" s="24">
-        <v>6885</v>
+        <v>21874</v>
       </c>
       <c r="G276" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H276" s="25"/>
       <c r="I276" s="25"/>
